--- a/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>17312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10254</v>
+        <v>10226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27152</v>
+        <v>26463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05429583581975034</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03215956807132687</v>
+        <v>0.03207312624232686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08515792283604381</v>
+        <v>0.08299798865322595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>16880</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10423</v>
+        <v>10567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27985</v>
+        <v>27271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05340667309934706</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03297709258638542</v>
+        <v>0.03343391992091189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08854396031692528</v>
+        <v>0.08628446317294478</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -783,19 +783,19 @@
         <v>34192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24532</v>
+        <v>24219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48593</v>
+        <v>47441</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0538532043518962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03863802569303586</v>
+        <v>0.03814636610128658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07653516410031266</v>
+        <v>0.07472140625200681</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>134998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115395</v>
+        <v>118297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152590</v>
+        <v>153700</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4233974533181859</v>
+        <v>0.423397453318186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.361914376085581</v>
+        <v>0.371016193569857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4785709375438673</v>
+        <v>0.4820534023708827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -833,19 +833,19 @@
         <v>145080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130342</v>
+        <v>130467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160180</v>
+        <v>159320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4590268019854702</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4123936618080686</v>
+        <v>0.4127910630210219</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5068009495456944</v>
+        <v>0.5040811001525241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>392</v>
@@ -854,19 +854,19 @@
         <v>280079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258029</v>
+        <v>258415</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>305482</v>
+        <v>305429</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4411339941530674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4064056432862141</v>
+        <v>0.4070130880696308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4811456593020051</v>
+        <v>0.4810618776653832</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>149700</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131756</v>
+        <v>130650</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170826</v>
+        <v>168501</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4695068217095771</v>
+        <v>0.4695068217095773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4132298249640199</v>
+        <v>0.4097590828960562</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5357655488016906</v>
+        <v>0.5284732521867486</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -904,19 +904,19 @@
         <v>136520</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122065</v>
+        <v>121335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151919</v>
+        <v>150561</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4319434701545131</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3862065246199839</v>
+        <v>0.3838963310310284</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4806643220958361</v>
+        <v>0.4763680086852435</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>380</v>
@@ -925,19 +925,19 @@
         <v>286220</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>263135</v>
+        <v>262284</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309755</v>
+        <v>310007</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4508075206088764</v>
+        <v>0.4508075206088765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4144472174984213</v>
+        <v>0.4131069153716844</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4878748404375668</v>
+        <v>0.4882717309114966</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>16835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10037</v>
+        <v>10553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25109</v>
+        <v>25968</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05279988915248652</v>
+        <v>0.05279988915248653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03148072516959574</v>
+        <v>0.03309657223853086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07875097763735907</v>
+        <v>0.08144431211222329</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -975,19 +975,19 @@
         <v>17580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12594</v>
+        <v>12119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23903</v>
+        <v>23705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05562305476066964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03984581001221347</v>
+        <v>0.03834492402530971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07562776738698787</v>
+        <v>0.07500100916919365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -996,19 +996,19 @@
         <v>34415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25941</v>
+        <v>26030</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44660</v>
+        <v>45479</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05420528088616004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04085810259067783</v>
+        <v>0.04099839159768429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07034166080598191</v>
+        <v>0.07163046635963459</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>48774</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33505</v>
+        <v>33330</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68513</v>
+        <v>67767</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09191419050554893</v>
+        <v>0.09191419050554894</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0631400379579458</v>
+        <v>0.0628105914420501</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1291117728584781</v>
+        <v>0.1277061795468154</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -1121,19 +1121,19 @@
         <v>28154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20083</v>
+        <v>19923</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38560</v>
+        <v>39162</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05151827047625772</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03674854486253627</v>
+        <v>0.03645635520228922</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0705582948063187</v>
+        <v>0.07166113947576583</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>70</v>
@@ -1142,19 +1142,19 @@
         <v>76928</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>58653</v>
+        <v>59495</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99179</v>
+        <v>97520</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07141906991831369</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05445247962934498</v>
+        <v>0.05523420714576703</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09207639972091293</v>
+        <v>0.09053564438926746</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>128833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105577</v>
+        <v>106027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155465</v>
+        <v>153788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2427841635198978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1989593692177491</v>
+        <v>0.1998074119332731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2929717791483013</v>
+        <v>0.2898113248598435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -1192,19 +1192,19 @@
         <v>113484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98206</v>
+        <v>96584</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131019</v>
+        <v>132924</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2076588307487119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1797013383123937</v>
+        <v>0.1767342531763637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2397445806393411</v>
+        <v>0.2432310819926441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -1213,19 +1213,19 @@
         <v>242317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>216594</v>
+        <v>214965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>277197</v>
+        <v>275523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2249631080694904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2010824218235598</v>
+        <v>0.1995703943278401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2573454154647978</v>
+        <v>0.2557906882138976</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>327009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300521</v>
+        <v>299159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356647</v>
+        <v>354007</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6162458366618612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5663285093663758</v>
+        <v>0.5637621984639691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6720974816680947</v>
+        <v>0.6671236705013674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -1263,19 +1263,19 @@
         <v>375704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>355025</v>
+        <v>353621</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>394801</v>
+        <v>393021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.687479756377272</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6496402674952506</v>
+        <v>0.647072050479457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7224253449627986</v>
+        <v>0.7191679293665891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>732</v>
@@ -1284,19 +1284,19 @@
         <v>702713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>668280</v>
+        <v>667254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>733917</v>
+        <v>736894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6523868076661152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6204201714683761</v>
+        <v>0.6194681096260871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6813561694716933</v>
+        <v>0.6841206543990657</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>26031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16303</v>
+        <v>16134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39392</v>
+        <v>40141</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0490558093126921</v>
+        <v>0.04905580931269209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03072316581551138</v>
+        <v>0.03040348212235322</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07423365309323711</v>
+        <v>0.07564495752306799</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1334,19 +1334,19 @@
         <v>29152</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21548</v>
+        <v>21009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41608</v>
+        <v>40424</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05334314239775832</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03942883016233328</v>
+        <v>0.03844320156317781</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07613630155253069</v>
+        <v>0.07396975149707952</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -1355,19 +1355,19 @@
         <v>55183</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42634</v>
+        <v>42366</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72013</v>
+        <v>72509</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05123101434608066</v>
+        <v>0.05123101434608065</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0395809305510161</v>
+        <v>0.03933195157742849</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06685534056431323</v>
+        <v>0.06731599445600144</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>25541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17267</v>
+        <v>17697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37730</v>
+        <v>38203</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08082655915607598</v>
+        <v>0.08082655915607596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05464416449422108</v>
+        <v>0.05600549100607077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1194019925039585</v>
+        <v>0.1208970614968772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1480,19 +1480,19 @@
         <v>19376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12942</v>
+        <v>12537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27523</v>
+        <v>27749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05485888239051583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03664156855225843</v>
+        <v>0.03549679416067565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07792604595017349</v>
+        <v>0.07856577106442614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -1501,19 +1501,19 @@
         <v>44917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33228</v>
+        <v>34471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57920</v>
+        <v>58540</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06712084813803613</v>
+        <v>0.06712084813803612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04965325813919411</v>
+        <v>0.05151170419465758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08655282629168909</v>
+        <v>0.08747904707654747</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>68867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55146</v>
+        <v>54717</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85695</v>
+        <v>83940</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2179373017661024</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1745171611308007</v>
+        <v>0.1731583191258179</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2711937827358172</v>
+        <v>0.2656402862157368</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>57</v>
@@ -1551,19 +1551,19 @@
         <v>43081</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33588</v>
+        <v>32402</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54918</v>
+        <v>54858</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1219738014713161</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09509752562932475</v>
+        <v>0.09173773252282216</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1554873787618968</v>
+        <v>0.1553180545824626</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>125</v>
@@ -1572,19 +1572,19 @@
         <v>111948</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>93522</v>
+        <v>94308</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>130640</v>
+        <v>131007</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1672878726625993</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1397537881643732</v>
+        <v>0.1409274538165129</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1952201140116124</v>
+        <v>0.1957683350149526</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>156960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>140582</v>
+        <v>140787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173975</v>
+        <v>173883</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4967204364574379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4448882499350318</v>
+        <v>0.4455375679490901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5505646274110649</v>
+        <v>0.5502759669210024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>296</v>
@@ -1622,19 +1622,19 @@
         <v>195391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>178605</v>
+        <v>180785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>211598</v>
+        <v>211325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5532044336454472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5056773056978116</v>
+        <v>0.5118489933864394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5990898578598456</v>
+        <v>0.5983166208107127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>483</v>
@@ -1643,19 +1643,19 @@
         <v>352351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>328484</v>
+        <v>327846</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>376122</v>
+        <v>374377</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5265326275745639</v>
+        <v>0.526532627574564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.490866177384124</v>
+        <v>0.4899137644832877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5620535791530189</v>
+        <v>0.5594469832682041</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>64626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52326</v>
+        <v>52357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80038</v>
+        <v>78412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2045157026203837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1655909042909596</v>
+        <v>0.1656916813388655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2532898331156219</v>
+        <v>0.2481436994119799</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>150</v>
@@ -1693,19 +1693,19 @@
         <v>95351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80781</v>
+        <v>83588</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107709</v>
+        <v>109044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2699628824927208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2287129613120574</v>
+        <v>0.2366591240252534</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3049513431610215</v>
+        <v>0.3087329359992291</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>229</v>
@@ -1714,19 +1714,19 @@
         <v>159976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>141461</v>
+        <v>139525</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179518</v>
+        <v>179049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2390586516248006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2113911964258175</v>
+        <v>0.2084971354373376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.268260762004208</v>
+        <v>0.2675596730746868</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>8241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2478</v>
+        <v>2746</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24657</v>
+        <v>24979</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02208650462683452</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006639534259612696</v>
+        <v>0.007358349592402677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06607961200707393</v>
+        <v>0.06694079744138837</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1839,19 +1839,19 @@
         <v>12875</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7775</v>
+        <v>7358</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21566</v>
+        <v>21714</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03051294138469132</v>
+        <v>0.03051294138469133</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01842563397445931</v>
+        <v>0.01743673158136644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05110805259628588</v>
+        <v>0.05145881027156788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1860,19 +1860,19 @@
         <v>21117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12304</v>
+        <v>12746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38763</v>
+        <v>36599</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02655839677747783</v>
+        <v>0.02655839677747782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01547513405619255</v>
+        <v>0.01603039232833668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.048752495819315</v>
+        <v>0.04603014787516505</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>36532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23916</v>
+        <v>23964</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53955</v>
+        <v>54159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09790267957394957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06409372741081956</v>
+        <v>0.06422222874634621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1445963773868993</v>
+        <v>0.1451416948842762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -1910,19 +1910,19 @@
         <v>43656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33079</v>
+        <v>32923</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59396</v>
+        <v>59467</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1034596491857974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07839290999397459</v>
+        <v>0.07802446753969761</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1407616970549928</v>
+        <v>0.1409294912995264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -1931,19 +1931,19 @@
         <v>80188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63118</v>
+        <v>62790</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101435</v>
+        <v>102917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1008517515841816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07938346885516019</v>
+        <v>0.07897048196329642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1275742019272322</v>
+        <v>0.1294381385690454</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>158829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>134081</v>
+        <v>135843</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>183617</v>
+        <v>183502</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4256484438252099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3593272612919667</v>
+        <v>0.3640500494906788</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4920784872704306</v>
+        <v>0.4917702922232817</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>301</v>
@@ -1981,19 +1981,19 @@
         <v>206134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188588</v>
+        <v>186879</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>225309</v>
+        <v>226485</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4885149627036783</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4469314351676449</v>
+        <v>0.442882388236284</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5339559615889909</v>
+        <v>0.5367439847279176</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>444</v>
@@ -2002,19 +2002,19 @@
         <v>364963</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>334525</v>
+        <v>331806</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>398240</v>
+        <v>396586</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4590115723206282</v>
+        <v>0.4590115723206281</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4207301578713115</v>
+        <v>0.4173102449946259</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5008628409050524</v>
+        <v>0.4987832847066411</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>169543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145485</v>
+        <v>144728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197488</v>
+        <v>195140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4543623719740061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3898897718098795</v>
+        <v>0.3878611960833535</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5292522649634352</v>
+        <v>0.522960940007769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -2052,19 +2052,19 @@
         <v>159296</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139387</v>
+        <v>140256</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>178727</v>
+        <v>178756</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3775124467258331</v>
+        <v>0.3775124467258332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3303316087286153</v>
+        <v>0.3323920486996066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4235627022135076</v>
+        <v>0.4236319880182959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>334</v>
@@ -2073,19 +2073,19 @@
         <v>328839</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294964</v>
+        <v>296924</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>361169</v>
+        <v>360437</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4135782793177124</v>
+        <v>0.4135782793177125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3709734685886841</v>
+        <v>0.3734396095073974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.454239203091624</v>
+        <v>0.453318415281567</v>
       </c>
     </row>
     <row r="23">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5712</v>
+        <v>5342</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008028066344453463</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02777435712843326</v>
+        <v>0.02597519238573059</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2198,19 +2198,19 @@
         <v>2002</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4803</v>
+        <v>4772</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.008827321555424525</v>
+        <v>0.008827321555424523</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001764531815673719</v>
+        <v>0.001711285050719602</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02117516887958997</v>
+        <v>0.02103975139751044</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2219,19 +2219,19 @@
         <v>3653</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1316</v>
+        <v>1432</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7939</v>
+        <v>8066</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.008447244922801316</v>
+        <v>0.008447244922801314</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003043550979458998</v>
+        <v>0.003310866273386549</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01835600193902856</v>
+        <v>0.01865101591122288</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>10950</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6007</v>
+        <v>5929</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19038</v>
+        <v>18285</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05324181057875334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02920614893445324</v>
+        <v>0.02883010194063643</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0925675561496519</v>
+        <v>0.08890720760227393</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2269,19 +2269,19 @@
         <v>4647</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1930</v>
+        <v>1964</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12256</v>
+        <v>11292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02048774513969479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008509224468422824</v>
+        <v>0.00865842448016655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05403116353520465</v>
+        <v>0.04978446538510035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2290,19 +2290,19 @@
         <v>15597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9638</v>
+        <v>9477</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25724</v>
+        <v>25134</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03606356463503792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02228590482343933</v>
+        <v>0.02191358081692215</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05947984228460647</v>
+        <v>0.058114685879956</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>132335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119341</v>
+        <v>118568</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144842</v>
+        <v>143847</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6434472881073009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5802697187860641</v>
+        <v>0.5765080817394812</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7042601846723923</v>
+        <v>0.6994217337532403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>304</v>
@@ -2340,19 +2340,19 @@
         <v>134803</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>122684</v>
+        <v>124659</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>145014</v>
+        <v>146231</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5943081022415573</v>
+        <v>0.5943081022415572</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5408805731197215</v>
+        <v>0.5495865903810017</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.63932590522748</v>
+        <v>0.6446934972171201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -2361,19 +2361,19 @@
         <v>267137</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>250339</v>
+        <v>250356</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284201</v>
+        <v>283276</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.617675677500787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5788341355459157</v>
+        <v>0.5788729897320415</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6571306873864704</v>
+        <v>0.6549917130979177</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>60729</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>48422</v>
+        <v>50713</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>72794</v>
+        <v>74235</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2952828349694923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2354404910862443</v>
+        <v>0.2465813059112228</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3539456885977912</v>
+        <v>0.3609490126217196</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>175</v>
@@ -2411,19 +2411,19 @@
         <v>85371</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>75496</v>
+        <v>75085</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>97793</v>
+        <v>96268</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3763768310633235</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3328424117216504</v>
+        <v>0.3310297197154424</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.431140723085719</v>
+        <v>0.4244201258801006</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>256</v>
@@ -2432,19 +2432,19 @@
         <v>146100</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>130374</v>
+        <v>130835</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>163087</v>
+        <v>162953</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3378135129413737</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3014519548180157</v>
+        <v>0.3025163567190574</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.377089236588839</v>
+        <v>0.3767797794878967</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>8932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16693</v>
+        <v>17840</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03299455853272546</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01518774600077153</v>
+        <v>0.01518351568129441</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06166592162654855</v>
+        <v>0.06590225712557836</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2557,19 +2557,19 @@
         <v>8625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4621</v>
+        <v>4677</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15471</v>
+        <v>15914</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03270228037634849</v>
+        <v>0.03270228037634848</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01751940689646393</v>
+        <v>0.01773097095775106</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05865946461640773</v>
+        <v>0.06033641899552617</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2578,19 +2578,19 @@
         <v>17557</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10349</v>
+        <v>11236</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27952</v>
+        <v>27376</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03285032165314544</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01936426324798669</v>
+        <v>0.02102371374794216</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05230069798448789</v>
+        <v>0.05122191858393155</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>67573</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54355</v>
+        <v>54257</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82736</v>
+        <v>82179</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2496160907363583</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2007883912388153</v>
+        <v>0.2004261665918232</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3056293024867214</v>
+        <v>0.3035733670006006</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>68</v>
@@ -2628,19 +2628,19 @@
         <v>52929</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41417</v>
+        <v>42192</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>65896</v>
+        <v>66042</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2006798787322999</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1570320603409369</v>
+        <v>0.1599698908392708</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2498440608900076</v>
+        <v>0.2503971414591273</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>146</v>
@@ -2649,19 +2649,19 @@
         <v>120502</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>102688</v>
+        <v>104209</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139739</v>
+        <v>140471</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2254664703698329</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1921355806511031</v>
+        <v>0.1949803497288015</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2614606457098675</v>
+        <v>0.2628292279646118</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>162378</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>146727</v>
+        <v>147033</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>176832</v>
+        <v>175742</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5998310192122821</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5420153129464981</v>
+        <v>0.5431447094729556</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6532220135133808</v>
+        <v>0.6491959998712871</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>310</v>
@@ -2699,19 +2699,19 @@
         <v>168586</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154993</v>
+        <v>155191</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>180942</v>
+        <v>181015</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.6391877543822964</v>
+        <v>0.6391877543822961</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5876525787095604</v>
+        <v>0.5884013693815613</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6860349400952023</v>
+        <v>0.6863110443949457</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>538</v>
@@ -2720,19 +2720,19 @@
         <v>330964</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>311277</v>
+        <v>312342</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>350347</v>
+        <v>349486</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6192532461133529</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5824174826829459</v>
+        <v>0.5844099682567612</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.655518643369547</v>
+        <v>0.6539092134037831</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>31824</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24062</v>
+        <v>24474</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41049</v>
+        <v>41904</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1175583315186341</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08888605916962827</v>
+        <v>0.09040703794481213</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1516366497131473</v>
+        <v>0.1547939971001117</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>70</v>
@@ -2770,19 +2770,19 @@
         <v>33610</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25810</v>
+        <v>26351</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42035</v>
+        <v>42490</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1274300865090553</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09785696026206157</v>
+        <v>0.09990770552917792</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1593729950870363</v>
+        <v>0.1610994395223898</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -2791,19 +2791,19 @@
         <v>65434</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54828</v>
+        <v>54035</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77362</v>
+        <v>77243</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1224299618636688</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1025863116970577</v>
+        <v>0.1011032784215702</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1447487984320359</v>
+        <v>0.1445253581854962</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>78252</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59159</v>
+        <v>61037</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>98753</v>
+        <v>100635</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1090633133527402</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.082453648208521</v>
+        <v>0.08507115690771755</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1376371163836764</v>
+        <v>0.1402598501987103</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -2916,19 +2916,19 @@
         <v>93969</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>75905</v>
+        <v>78002</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>112596</v>
+        <v>115267</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1217121337769337</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09831530451038679</v>
+        <v>0.1010313854763812</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1458391349862634</v>
+        <v>0.1492979267105418</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>164</v>
@@ -2937,19 +2937,19 @@
         <v>172220</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>145883</v>
+        <v>147508</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>201956</v>
+        <v>204762</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1156194180106151</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09793808082087868</v>
+        <v>0.09902887957665717</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1355824669503586</v>
+        <v>0.1374663905323246</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>108092</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>85398</v>
+        <v>86513</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>131416</v>
+        <v>131022</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1506534288281</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1190233448450673</v>
+        <v>0.1205773195383011</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1831610791143607</v>
+        <v>0.1826122850777314</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>115</v>
@@ -2987,19 +2987,19 @@
         <v>102551</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>82919</v>
+        <v>83149</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>123249</v>
+        <v>124416</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1328287595360746</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.107400216878006</v>
+        <v>0.1076975827534623</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1596368077207131</v>
+        <v>0.1611482655371597</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>199</v>
@@ -3008,19 +3008,19 @@
         <v>210643</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>180867</v>
+        <v>182166</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>245468</v>
+        <v>244998</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1414145912565739</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1214242187414476</v>
+        <v>0.1222962881353134</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1647939985616723</v>
+        <v>0.1644787526052354</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>283540</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>256088</v>
+        <v>254786</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>315846</v>
+        <v>311519</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3951842118085735</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3569234863575643</v>
+        <v>0.3551090261973232</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4402111897457879</v>
+        <v>0.4341805429209479</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>420</v>
@@ -3058,19 +3058,19 @@
         <v>325081</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>300183</v>
+        <v>298996</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>352234</v>
+        <v>350512</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4210583920682574</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3888090638864237</v>
+        <v>0.3872724195381546</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4562274529633649</v>
+        <v>0.4539970929717806</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>661</v>
@@ -3079,19 +3079,19 @@
         <v>608621</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>569041</v>
+        <v>568458</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>646655</v>
+        <v>648742</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4085952515759457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3820235804709703</v>
+        <v>0.3816319467132264</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4341296493942185</v>
+        <v>0.4355305661653066</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>247604</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>215964</v>
+        <v>218377</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>275966</v>
+        <v>279886</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3450990460105863</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3010004556715521</v>
+        <v>0.3043642550943657</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.384628688301247</v>
+        <v>0.3900919994821058</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>322</v>
@@ -3129,19 +3129,19 @@
         <v>250456</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>226851</v>
+        <v>225190</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>276267</v>
+        <v>275711</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3244007146187342</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2938264603374873</v>
+        <v>0.2916747378244375</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.357833015147057</v>
+        <v>0.3571121765501808</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>533</v>
@@ -3150,19 +3150,19 @@
         <v>498060</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>459471</v>
+        <v>461953</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>537357</v>
+        <v>536827</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3343707391568654</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3084638913303699</v>
+        <v>0.3101302981205781</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3607526269732828</v>
+        <v>0.3603970581886535</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>21538</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13168</v>
+        <v>12684</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>33196</v>
+        <v>33762</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0269880803886035</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01650027463915739</v>
+        <v>0.01589333144435036</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04159555608643781</v>
+        <v>0.04230484932131282</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>23</v>
@@ -3275,19 +3275,19 @@
         <v>19157</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12522</v>
+        <v>11521</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29006</v>
+        <v>28742</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02304333767002696</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01506311851094393</v>
+        <v>0.01385805123545118</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03489154688254688</v>
+        <v>0.03457379912930938</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>42</v>
@@ -3296,19 +3296,19 @@
         <v>40695</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>28983</v>
+        <v>29346</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>56167</v>
+        <v>56060</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02497544877636306</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01778723517111015</v>
+        <v>0.01801056951863308</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03447107317901099</v>
+        <v>0.0344054257605626</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>81802</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>65720</v>
+        <v>64206</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>101122</v>
+        <v>101000</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1024992866201824</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08234883250958162</v>
+        <v>0.08045184140840694</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1267084508972931</v>
+        <v>0.1265548036781342</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>87</v>
@@ -3346,19 +3346,19 @@
         <v>68415</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>55011</v>
+        <v>55074</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>83406</v>
+        <v>82982</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08229542964989399</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06617217957196755</v>
+        <v>0.06624839888345874</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1003280497554562</v>
+        <v>0.0998176826883346</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>164</v>
@@ -3367,19 +3367,19 @@
         <v>150217</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>129617</v>
+        <v>128212</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>175835</v>
+        <v>172930</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09219115650155707</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07954894725884977</v>
+        <v>0.07868653304197801</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1079134603827553</v>
+        <v>0.1061307351393908</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>584202</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>557452</v>
+        <v>558246</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>611694</v>
+        <v>608321</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.7320161682573681</v>
+        <v>0.7320161682573683</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.698498781402961</v>
+        <v>0.6994935080339415</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7664646854898375</v>
+        <v>0.7622377493826936</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>818</v>
@@ -3417,19 +3417,19 @@
         <v>642298</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>620192</v>
+        <v>620280</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>661883</v>
+        <v>664182</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.7726144962563507</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.746023366939683</v>
+        <v>0.7461284005237091</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7961726073275509</v>
+        <v>0.7989381030804259</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1380</v>
@@ -3438,19 +3438,19 @@
         <v>1226500</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1193196</v>
+        <v>1191108</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1260997</v>
+        <v>1258758</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7527296809409896</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.7322902126256218</v>
+        <v>0.7310090599979411</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7739013668304795</v>
+        <v>0.7725268702109421</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>110530</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>92160</v>
+        <v>92418</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>132218</v>
+        <v>133622</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1384964647338458</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1154779085931819</v>
+        <v>0.1158018125664606</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1656715277555668</v>
+        <v>0.1674315827024789</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>134</v>
@@ -3488,19 +3488,19 @@
         <v>101461</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>87080</v>
+        <v>86384</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>120637</v>
+        <v>121482</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1220467364237283</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1047472733171089</v>
+        <v>0.1039108369478824</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1451126618574249</v>
+        <v>0.1461292499964655</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>238</v>
@@ -3509,19 +3509,19 @@
         <v>211991</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>184556</v>
+        <v>187651</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>237334</v>
+        <v>240665</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1301037137810902</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1132660675547517</v>
+        <v>0.1151655665048086</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1456568994878665</v>
+        <v>0.1477010521265772</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>210241</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>178377</v>
+        <v>180861</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>249076</v>
+        <v>244485</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05954888380310611</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05052360431200012</v>
+        <v>0.05122723274441507</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07054853166590799</v>
+        <v>0.06924822219115705</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>246</v>
@@ -3634,19 +3634,19 @@
         <v>201038</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>177020</v>
+        <v>177162</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>227680</v>
+        <v>231877</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05387346557640151</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04743702837956455</v>
+        <v>0.04747509007900125</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.06101272857598706</v>
+        <v>0.06213752030153839</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>420</v>
@@ -3655,19 +3655,19 @@
         <v>411279</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>368547</v>
+        <v>371751</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>458627</v>
+        <v>456822</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.05663258917569537</v>
+        <v>0.05663258917569534</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05074835228035508</v>
+        <v>0.0511895479810856</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06315225267123173</v>
+        <v>0.06290378354532444</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>637646</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>587619</v>
+        <v>585815</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>693821</v>
+        <v>690217</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1806075674698468</v>
+        <v>0.1806075674698469</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1664378759675764</v>
+        <v>0.1659269376608667</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1965186813171935</v>
+        <v>0.19549763682546</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>788</v>
@@ -3705,19 +3705,19 @@
         <v>573844</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>535671</v>
+        <v>530944</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>619517</v>
+        <v>613896</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1537765189517436</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1435470728593316</v>
+        <v>0.142280237198893</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1660155977477636</v>
+        <v>0.1645093519076098</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1373</v>
@@ -3726,19 +3726,19 @@
         <v>1211491</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1150368</v>
+        <v>1143680</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1274236</v>
+        <v>1270409</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1668205231471986</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1584040806034483</v>
+        <v>0.1574830864617994</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1754604708816578</v>
+        <v>0.1749335312503015</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>1954952</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1890184</v>
+        <v>1883899</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>2023542</v>
+        <v>2016287</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5537226684073697</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.535377665954349</v>
+        <v>0.5335976142294423</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.5731502010474938</v>
+        <v>0.571095154372121</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3173</v>
@@ -3776,19 +3776,19 @@
         <v>2184519</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2131277</v>
+        <v>2129686</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>2239771</v>
+        <v>2238594</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.5853985434298558</v>
+        <v>0.5853985434298559</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5711310438976909</v>
+        <v>0.5707046040186717</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6002049056243645</v>
+        <v>0.5998892527591577</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>5106</v>
@@ -3797,19 +3797,19 @@
         <v>4139471</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4051238</v>
+        <v>4052429</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>4219212</v>
+        <v>4223852</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.5699992105856981</v>
+        <v>0.569999210585698</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5578496131652443</v>
+        <v>0.5580136412661502</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5809794599806999</v>
+        <v>0.5816183679646354</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>727723</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1150</v>
@@ -3847,19 +3847,19 @@
         <v>772276</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1832</v>
@@ -3868,19 +3868,19 @@
         <v>1499999</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="48">
